--- a/sprint-1/Matriz_RequisitosV1.0.xlsx
+++ b/sprint-1/Matriz_RequisitosV1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raissa Domingos\Desktop\ProjetoGit_Remoto\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\2-sem\projeto-inovacao\Doc\sprint-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17F8BBB-63E8-4849-882E-8C9342680FC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF82E603-8E93-4AF6-866E-CDC2B32E0C97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="300" windowWidth="19290" windowHeight="10620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1770" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Histórico de Alterações" sheetId="4" r:id="rId1"/>
@@ -465,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -548,13 +548,6 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Exo 2"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Exo 2"/>
@@ -562,13 +555,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Exo 2"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color indexed="8"/>
       <name val="Exo 2"/>
       <family val="3"/>
@@ -587,25 +573,53 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="Exo 2"/>
-      <family val="3"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="Exo 2"/>
-      <family val="3"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Exo 2"/>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +647,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB08818"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1010,11 +1030,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1024,176 +1044,184 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1201,6 +1229,65 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFB08818"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1526,34 +1613,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Exo 2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
@@ -1585,38 +1644,13 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Exo 2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB08818"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1633,27 +1667,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2199216</xdr:colOff>
+      <xdr:colOff>2085976</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>227823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="logo">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F064D4-5E74-4544-BE4C-16D5C495DA56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1664,29 +1698,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="200024" y="533400"/>
-          <a:ext cx="2904067" cy="466725"/>
+          <a:off x="381001" y="476250"/>
+          <a:ext cx="2762250" cy="667653"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1695,27 +1718,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="D7:U81" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="D7:U81" totalsRowShown="0" headerRowDxfId="1" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <autoFilter ref="D7:U81" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Descrição do Requisito" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivo / Estratégia de Negócio" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prioridade" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Versão do Requisito" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo Requisito " dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complexidade" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Solicitante" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Responsável" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Validador" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Critérios de Aceitação" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Dependência Internas entre Requisitos  (rastreabilidade)" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Dependências Externas entre Requisitos (Rastreabilidade)" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Data da Criação" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Data Última Alteração" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Responsável pela última alteração" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Motivo Última Alteração" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Documentação de Apoio" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Situação do Requisito" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Descrição do Requisito" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivo / Estratégia de Negócio" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prioridade" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Versão do Requisito" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo Requisito " dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complexidade" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Solicitante" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Responsável" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Validador" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Critérios de Aceitação" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Dependência Internas entre Requisitos  (rastreabilidade)" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Dependências Externas entre Requisitos (Rastreabilidade)" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Data da Criação" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Data Última Alteração" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Responsável pela última alteração" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Motivo Última Alteração" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Documentação de Apoio" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Situação do Requisito" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2048,7 +2071,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
@@ -2059,15 +2082,15 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-    </row>
-    <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="4" spans="2:5" ht="27" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -2081,7 +2104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="15">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2091,49 +2114,49 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="15">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="15">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="15">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="15">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="15">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="15">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="15">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5">
       <c r="B37" s="2" t="s">
         <v>19</v>
       </c>
@@ -2141,12 +2164,12 @@
         <v>41293</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5">
       <c r="B38" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" ht="15" customHeight="1">
       <c r="B39" s="2" t="s">
         <v>31</v>
       </c>
@@ -2164,32 +2187,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5:P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="46" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="7" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="49" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="36" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="36" customWidth="1"/>
     <col min="14" max="14" width="22.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="16" style="49" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" style="36" customWidth="1"/>
+    <col min="16" max="16" width="16" style="36" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="7" customWidth="1"/>
     <col min="20" max="20" width="16.140625" style="7" customWidth="1"/>
@@ -2198,7 +2221,7 @@
     <col min="23" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.25" customHeight="1" thickBot="1">
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -2218,23 +2241,23 @@
       </c>
       <c r="U1" s="12"/>
     </row>
-    <row r="2" spans="2:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="69" t="s">
+    <row r="2" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
+      <c r="E2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="75" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="75"/>
+      <c r="P2" s="44"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="16"/>
       <c r="T2" s="17" t="s">
@@ -2242,2529 +2265,2531 @@
       </c>
       <c r="U2" s="12"/>
     </row>
-    <row r="3" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
+    <row r="3" spans="2:22" ht="14.25" customHeight="1" thickBot="1">
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
       <c r="Q3" s="7"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="60" t="s">
+    <row r="4" spans="2:22" ht="12.75" customHeight="1" thickBot="1">
+      <c r="E4" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="78" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="78"/>
+      <c r="P4" s="45"/>
       <c r="Q4" s="12"/>
       <c r="S4" s="18"/>
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22">
       <c r="B5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="80"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="20"/>
       <c r="S5" s="18"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
     </row>
-    <row r="6" spans="2:22" s="21" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" s="21" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
       <c r="C6" s="22"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="82"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="23"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
       <c r="V6" s="25"/>
     </row>
-    <row r="7" spans="2:22" s="31" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="2:22" s="58" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B7" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="S7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="29" t="s">
+      <c r="T7" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="30" t="s">
+      <c r="U7" s="57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:22" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="32">
+    <row r="8" spans="2:22" s="52" customFormat="1" ht="28.5">
+      <c r="B8" s="59">
         <v>1</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36" t="s">
+      <c r="K8" s="62"/>
+      <c r="L8" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="35">
+      <c r="M8" s="62"/>
+      <c r="N8" s="61">
         <v>2</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="37">
+      <c r="O8" s="50"/>
+      <c r="P8" s="63">
         <v>43712</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="40"/>
-      <c r="C9" s="41" t="s">
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" s="52" customFormat="1" ht="16.5">
+      <c r="B9" s="64"/>
+      <c r="C9" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="37">
+      <c r="M9" s="62"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="63">
         <v>43712</v>
       </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="40"/>
-      <c r="C10" s="41" t="s">
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" s="52" customFormat="1" ht="16.5">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="61"/>
+      <c r="F10" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="55">
+      <c r="M10" s="62"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="63">
         <v>43712</v>
       </c>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="40"/>
-      <c r="C11" s="41" t="s">
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" s="52" customFormat="1" ht="16.5">
+      <c r="B11" s="64"/>
+      <c r="C11" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="61"/>
+      <c r="F11" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="37">
+      <c r="M11" s="62"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="63">
         <v>43712</v>
       </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41" t="s">
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" s="52" customFormat="1" ht="16.5">
+      <c r="B12" s="64"/>
+      <c r="C12" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="55">
+      <c r="M12" s="62"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="63">
         <v>43712</v>
       </c>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="40"/>
-      <c r="C13" s="41" t="s">
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" s="52" customFormat="1" ht="16.5">
+      <c r="B13" s="64"/>
+      <c r="C13" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="61"/>
+      <c r="F13" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="55">
+      <c r="M13" s="62"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="63">
         <v>43712</v>
       </c>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="40">
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" s="52" customFormat="1" ht="16.5">
+      <c r="B14" s="64">
         <v>2</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="61"/>
+      <c r="F14" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="35">
+      <c r="M14" s="62"/>
+      <c r="N14" s="61">
         <v>1</v>
       </c>
-      <c r="O14" s="34"/>
-      <c r="P14" s="37">
+      <c r="O14" s="50"/>
+      <c r="P14" s="63">
         <v>43712</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41" t="s">
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" s="52" customFormat="1" ht="16.5">
+      <c r="B15" s="64"/>
+      <c r="C15" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="61"/>
+      <c r="F15" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="55">
+      <c r="M15" s="62"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="63">
         <v>43712</v>
       </c>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="36"/>
-    </row>
-    <row r="16" spans="2:22" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="40"/>
-      <c r="C16" s="41" t="s">
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="62"/>
+    </row>
+    <row r="16" spans="2:22" s="52" customFormat="1" ht="28.5">
+      <c r="B16" s="64"/>
+      <c r="C16" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="37">
+      <c r="M16" s="62"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="63">
         <v>43712</v>
       </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="36"/>
-    </row>
-    <row r="17" spans="1:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="62"/>
+    </row>
+    <row r="17" spans="1:21" s="52" customFormat="1" ht="16.5">
+      <c r="A17" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="64">
         <v>3</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="50" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="36" t="s">
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="36" t="s">
+      <c r="K17" s="62"/>
+      <c r="L17" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="53"/>
-    </row>
-    <row r="18" spans="1:21" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="40"/>
-      <c r="C18" s="41" t="s">
+      <c r="M17" s="62"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="62"/>
+    </row>
+    <row r="18" spans="1:21" s="52" customFormat="1" ht="42.75">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="36" t="s">
+      <c r="K18" s="62"/>
+      <c r="L18" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M18" s="53"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="53"/>
-    </row>
-    <row r="19" spans="1:21" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="40"/>
-      <c r="C19" s="41" t="s">
+      <c r="M18" s="62"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="62"/>
+    </row>
+    <row r="19" spans="1:21" s="52" customFormat="1" ht="42.75">
+      <c r="B19" s="64"/>
+      <c r="C19" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="35">
+      <c r="M19" s="62"/>
+      <c r="N19" s="61">
         <v>2</v>
       </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="37">
+      <c r="O19" s="50"/>
+      <c r="P19" s="63">
         <v>43712</v>
       </c>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="39" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="40">
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="52" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B20" s="64">
         <v>4</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="35">
+      <c r="M20" s="62"/>
+      <c r="N20" s="61">
         <v>5</v>
       </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="37">
+      <c r="O20" s="50"/>
+      <c r="P20" s="63">
         <v>43712</v>
       </c>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="40">
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="52" customFormat="1" ht="28.5">
+      <c r="B21" s="64">
         <v>5</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53" t="s">
+      <c r="E21" s="61"/>
+      <c r="F21" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="36" t="s">
+      <c r="K21" s="62"/>
+      <c r="L21" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="53"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="53"/>
-    </row>
-    <row r="22" spans="1:21" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="40">
+      <c r="M21" s="62"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="62"/>
+    </row>
+    <row r="22" spans="1:21" s="52" customFormat="1" ht="42.75">
+      <c r="B22" s="64">
         <v>6</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="L22" s="36" t="s">
+      <c r="L22" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="55">
+      <c r="M22" s="62"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="63">
         <v>43712</v>
       </c>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="40">
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="52" customFormat="1" ht="28.5">
+      <c r="B23" s="64">
         <v>7</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36" t="s">
+      <c r="E23" s="61"/>
+      <c r="F23" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="37">
+      <c r="M23" s="62"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="63">
         <v>43712</v>
       </c>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="40">
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="52" customFormat="1" ht="42.75">
+      <c r="B24" s="64">
         <v>8</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="55">
+      <c r="M24" s="62"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="63">
         <v>43712</v>
       </c>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="40">
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="52" customFormat="1" ht="28.5">
+      <c r="B25" s="64">
         <v>9</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36" t="s">
+      <c r="E25" s="61"/>
+      <c r="F25" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="I25" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="35">
+      <c r="M25" s="62"/>
+      <c r="N25" s="61">
         <v>5</v>
       </c>
-      <c r="O25" s="34"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="40">
+      <c r="O25" s="50"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="52" customFormat="1" ht="16.5">
+      <c r="B26" s="64">
         <v>10</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36" t="s">
+      <c r="E26" s="61"/>
+      <c r="F26" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="40">
+      <c r="M26" s="62"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="52" customFormat="1" ht="16.5">
+      <c r="B27" s="64">
         <v>11</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="50" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53" t="s">
+      <c r="E27" s="61"/>
+      <c r="F27" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="36" t="s">
+      <c r="K27" s="62"/>
+      <c r="L27" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M27" s="53"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="51" t="s">
+      <c r="M27" s="62"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="53"/>
-    </row>
-    <row r="28" spans="1:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="40">
+      <c r="P27" s="63"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="62"/>
+    </row>
+    <row r="28" spans="1:21" s="52" customFormat="1" ht="16.5">
+      <c r="B28" s="64">
         <v>12</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="50" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53" t="s">
+      <c r="E28" s="61"/>
+      <c r="F28" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="53" t="s">
+      <c r="H28" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="54" t="s">
+      <c r="I28" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="36" t="s">
+      <c r="J28" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="36" t="s">
+      <c r="K28" s="62"/>
+      <c r="L28" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M28" s="53"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="51" t="s">
+      <c r="M28" s="62"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="53"/>
-    </row>
-    <row r="29" spans="1:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="40">
+      <c r="P28" s="63"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="62"/>
+    </row>
+    <row r="29" spans="1:21" s="52" customFormat="1" ht="16.5">
+      <c r="B29" s="64">
         <v>13</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="34" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="61"/>
+      <c r="F29" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M29" s="36"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="34" t="s">
+      <c r="M29" s="62"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="40">
+      <c r="P29" s="63"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="52" customFormat="1" ht="28.5">
+      <c r="B30" s="64">
         <v>14</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="34" t="s">
+      <c r="C30" s="65"/>
+      <c r="D30" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="61"/>
+      <c r="F30" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="36" t="s">
+      <c r="J30" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M30" s="36"/>
-      <c r="N30" s="35">
+      <c r="M30" s="62"/>
+      <c r="N30" s="61">
         <v>2</v>
       </c>
-      <c r="O30" s="34"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="40">
+      <c r="O30" s="50"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="52" customFormat="1" ht="16.5">
+      <c r="B31" s="64">
         <v>15</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="34" t="s">
+      <c r="C31" s="65"/>
+      <c r="D31" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36" t="s">
+      <c r="E31" s="61"/>
+      <c r="F31" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J31" s="36" t="s">
+      <c r="J31" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K31" s="36" t="s">
+      <c r="K31" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M31" s="36"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="34" t="s">
+      <c r="M31" s="62"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="40">
+      <c r="P31" s="63"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="52" customFormat="1" ht="16.5">
+      <c r="B32" s="64">
         <v>16</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="34" t="s">
+      <c r="C32" s="65"/>
+      <c r="D32" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36" t="s">
+      <c r="E32" s="61"/>
+      <c r="F32" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M32" s="36"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="34" t="s">
+      <c r="M32" s="62"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B33" s="40">
+      <c r="P32" s="63"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B33" s="64">
         <v>17</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="50" t="s">
+      <c r="C33" s="65"/>
+      <c r="D33" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53" t="s">
+      <c r="E33" s="61"/>
+      <c r="F33" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="I33" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J33" s="36" t="s">
+      <c r="J33" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K33" s="53" t="s">
+      <c r="K33" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M33" s="53"/>
-      <c r="N33" s="52">
+      <c r="M33" s="62"/>
+      <c r="N33" s="61">
         <v>5</v>
       </c>
-      <c r="O33" s="34" t="s">
+      <c r="O33" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="40">
+      <c r="P33" s="63"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B34" s="64">
         <v>18</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="65"/>
+      <c r="D34" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53" t="s">
+      <c r="E34" s="61"/>
+      <c r="F34" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="54" t="s">
+      <c r="I34" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="36" t="s">
+      <c r="J34" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K34" s="53" t="s">
+      <c r="K34" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="L34" s="36" t="s">
+      <c r="L34" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M34" s="53"/>
-      <c r="N34" s="52">
+      <c r="M34" s="62"/>
+      <c r="N34" s="61">
         <v>5</v>
       </c>
-      <c r="O34" s="51"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="40">
+      <c r="O34" s="50"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B35" s="64">
         <v>19</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="50" t="s">
+      <c r="C35" s="65"/>
+      <c r="D35" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53" t="s">
+      <c r="E35" s="61"/>
+      <c r="F35" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="G35" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="54" t="s">
+      <c r="I35" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="36" t="s">
+      <c r="J35" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="53" t="s">
+      <c r="K35" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="L35" s="36" t="s">
+      <c r="L35" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M35" s="53"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="40">
+      <c r="M35" s="62"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B36" s="64">
         <v>20</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="50" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53" t="s">
+      <c r="E36" s="61"/>
+      <c r="F36" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="53" t="s">
+      <c r="G36" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="54" t="s">
+      <c r="I36" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="J36" s="36" t="s">
+      <c r="J36" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K36" s="53" t="s">
+      <c r="K36" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="L36" s="36" t="s">
+      <c r="L36" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M36" s="53"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="40">
+      <c r="M36" s="62"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B37" s="64">
         <v>21</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="56"/>
-    </row>
-    <row r="38" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B38" s="40">
+      <c r="C37" s="65"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="67"/>
+    </row>
+    <row r="38" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B38" s="64">
         <v>22</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="56"/>
-    </row>
-    <row r="39" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="40">
+      <c r="C38" s="65"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="67"/>
+    </row>
+    <row r="39" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B39" s="64">
         <v>23</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B40" s="40">
+      <c r="C39" s="65"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B40" s="64">
         <v>24</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B41" s="40">
+      <c r="C40" s="65"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B41" s="64">
         <v>25</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B42" s="40">
+      <c r="C41" s="65"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B42" s="64">
         <v>26</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B43" s="40">
+      <c r="C42" s="65"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B43" s="64">
         <v>27</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B44" s="40">
+      <c r="C43" s="65"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B44" s="64">
         <v>28</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B45" s="40">
+      <c r="C44" s="65"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B45" s="64">
         <v>29</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B46" s="40">
+      <c r="C45" s="65"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B46" s="64">
         <v>30</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B47" s="40">
+      <c r="C46" s="65"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B47" s="64">
         <v>31</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B48" s="40">
+      <c r="C47" s="65"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B48" s="64">
         <v>32</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B49" s="40">
+      <c r="C48" s="65"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B49" s="64">
         <v>33</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B50" s="40">
+      <c r="C49" s="65"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B50" s="64">
         <v>34</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B51" s="40">
+      <c r="C50" s="65"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B51" s="64">
         <v>35</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B52" s="40">
+      <c r="C51" s="65"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B52" s="64">
         <v>36</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B53" s="40">
+      <c r="C52" s="65"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B53" s="64">
         <v>37</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B54" s="40">
+      <c r="C53" s="65"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B54" s="64">
         <v>38</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B55" s="40">
+      <c r="C54" s="65"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B55" s="64">
         <v>39</v>
       </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B56" s="40">
+      <c r="C55" s="65"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B56" s="64">
         <v>40</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B57" s="40">
+      <c r="C56" s="65"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B57" s="64">
         <v>41</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B58" s="40">
+      <c r="C57" s="65"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B58" s="64">
         <v>42</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="40">
+      <c r="C58" s="65"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B59" s="64">
         <v>43</v>
       </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="40">
+      <c r="C59" s="65"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B60" s="64">
         <v>44</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B61" s="40">
+      <c r="C60" s="65"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="62"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B61" s="64">
         <v>45</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B62" s="40">
+      <c r="C61" s="65"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B62" s="64">
         <v>46</v>
       </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B63" s="40">
+      <c r="C62" s="65"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B63" s="64">
         <v>47</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B64" s="40">
+      <c r="C63" s="65"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B64" s="64">
         <v>48</v>
       </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B65" s="40">
+      <c r="C64" s="65"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B65" s="64">
         <v>49</v>
       </c>
-      <c r="C65" s="41"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B66" s="40">
+      <c r="C65" s="65"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B66" s="64">
         <v>50</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B67" s="40">
+      <c r="C66" s="65"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="62"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B67" s="64">
         <v>51</v>
       </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B68" s="40">
+      <c r="C67" s="65"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="51"/>
+      <c r="U67" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B68" s="64">
         <v>52</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B69" s="40">
+      <c r="C68" s="65"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="62"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="51"/>
+      <c r="U68" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B69" s="64">
         <v>53</v>
       </c>
-      <c r="C69" s="41"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B70" s="40">
+      <c r="C69" s="65"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B70" s="64">
         <v>54</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B71" s="40">
+      <c r="C70" s="70"/>
+    </row>
+    <row r="71" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B71" s="64">
         <v>55</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B72" s="40">
+      <c r="C71" s="65"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="62"/>
+      <c r="S71" s="62"/>
+      <c r="T71" s="51"/>
+      <c r="U71" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B72" s="64">
         <v>56</v>
       </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B73" s="40">
+      <c r="C72" s="65"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="62"/>
+      <c r="S72" s="62"/>
+      <c r="T72" s="51"/>
+      <c r="U72" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B73" s="64">
         <v>57</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="34"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:21" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B74" s="40">
+      <c r="C73" s="65"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="62"/>
+      <c r="S73" s="62"/>
+      <c r="T73" s="51"/>
+      <c r="U73" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" s="52" customFormat="1" ht="16.5">
+      <c r="B74" s="64">
         <v>58</v>
       </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:21" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="40">
+      <c r="C74" s="65"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="63"/>
+      <c r="Q74" s="62"/>
+      <c r="R74" s="62"/>
+      <c r="S74" s="62"/>
+      <c r="T74" s="51"/>
+      <c r="U74" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" s="52" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B75" s="64">
         <v>59</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D76" s="34"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="34"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D77" s="34"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D78" s="34"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="34"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D79" s="34"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D80" s="34"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="38"/>
-      <c r="U80" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="4:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="44"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="44"/>
-      <c r="P81" s="47"/>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="46"/>
-      <c r="S81" s="46"/>
-      <c r="T81" s="48"/>
-      <c r="U81" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="C75" s="71"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="62"/>
+      <c r="S75" s="62"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21">
+      <c r="D76" s="50"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="30"/>
+      <c r="U76" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21">
+      <c r="D77" s="50"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="28"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="30"/>
+      <c r="U77" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21">
+      <c r="D78" s="50"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="30"/>
+      <c r="U78" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21">
+      <c r="D79" s="50"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="30"/>
+      <c r="U79" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21">
+      <c r="D80" s="50"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="30"/>
+      <c r="U80" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:21" ht="15" thickBot="1">
+      <c r="D81" s="53"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:21">
       <c r="N82" s="12"/>
     </row>
   </sheetData>
